--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>32.70553176741726</v>
+        <v>117.875309828238</v>
       </c>
       <c r="R2">
-        <v>32.70553176741726</v>
+        <v>1060.877788454142</v>
       </c>
       <c r="S2">
-        <v>0.003417310925027037</v>
+        <v>0.006990641137952836</v>
       </c>
       <c r="T2">
-        <v>0.003417310925027037</v>
+        <v>0.007215622977969367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>49.70167820807855</v>
+        <v>76.213610496524</v>
       </c>
       <c r="R3">
-        <v>49.70167820807855</v>
+        <v>685.922494468716</v>
       </c>
       <c r="S3">
-        <v>0.005193191449706175</v>
+        <v>0.00451987784028104</v>
       </c>
       <c r="T3">
-        <v>0.005193191449706175</v>
+        <v>0.004665342385390583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>2.834826042595437</v>
+        <v>4.483337275428332</v>
       </c>
       <c r="R4">
-        <v>2.834826042595437</v>
+        <v>40.35003547885499</v>
       </c>
       <c r="S4">
-        <v>0.0002962031644923033</v>
+        <v>0.0002658860624722498</v>
       </c>
       <c r="T4">
-        <v>0.0002962031644923033</v>
+        <v>0.000274443151069602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>5.193030763162899</v>
+        <v>8.812394118785331</v>
       </c>
       <c r="R5">
-        <v>5.193030763162899</v>
+        <v>79.31154706906798</v>
       </c>
       <c r="S5">
-        <v>0.0005426054799279441</v>
+        <v>0.0005226224638594889</v>
       </c>
       <c r="T5">
-        <v>0.0005426054799279441</v>
+        <v>0.000539442174846329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>12.479531954826</v>
+        <v>18.707347049705</v>
       </c>
       <c r="R6">
-        <v>12.479531954826</v>
+        <v>112.24408229823</v>
       </c>
       <c r="S6">
-        <v>0.001303951918339919</v>
+        <v>0.00110944649951028</v>
       </c>
       <c r="T6">
-        <v>0.001303951918339919</v>
+        <v>0.0007634347595799465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>2593.10484173252</v>
+        <v>6953.191652451605</v>
       </c>
       <c r="R7">
-        <v>2593.10484173252</v>
+        <v>62578.72487206445</v>
       </c>
       <c r="S7">
-        <v>0.2709463820496941</v>
+        <v>0.412361737810289</v>
       </c>
       <c r="T7">
-        <v>0.2709463820496941</v>
+        <v>0.4256328957333149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>3940.668609828198</v>
+        <v>4495.664453224455</v>
       </c>
       <c r="R8">
-        <v>3940.668609828198</v>
+        <v>40460.9800790201</v>
       </c>
       <c r="S8">
-        <v>0.4117496082327252</v>
+        <v>0.266617130550391</v>
       </c>
       <c r="T8">
-        <v>0.4117496082327252</v>
+        <v>0.2751977473246517</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>224.7632354306212</v>
+        <v>264.4616872189594</v>
       </c>
       <c r="R9">
-        <v>224.7632354306212</v>
+        <v>2380.155184970635</v>
       </c>
       <c r="S9">
-        <v>0.02348489134632227</v>
+        <v>0.01568400331485185</v>
       </c>
       <c r="T9">
-        <v>0.02348489134632227</v>
+        <v>0.01618876616205961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>411.7368679704254</v>
+        <v>519.822728900035</v>
       </c>
       <c r="R10">
-        <v>411.7368679704254</v>
+        <v>4678.404560100316</v>
       </c>
       <c r="S10">
-        <v>0.04302125118031255</v>
+        <v>0.03082828930321896</v>
       </c>
       <c r="T10">
-        <v>0.04302125118031255</v>
+        <v>0.03182044511770428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>989.457531672187</v>
+        <v>1103.503096068752</v>
       </c>
       <c r="R11">
-        <v>989.457531672187</v>
+        <v>6621.01857641251</v>
       </c>
       <c r="S11">
-        <v>0.1033856919642639</v>
+        <v>0.06544368070359496</v>
       </c>
       <c r="T11">
-        <v>0.1033856919642639</v>
+        <v>0.04503324916165806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>106.163935093948</v>
+        <v>286.56024610446</v>
       </c>
       <c r="R12">
-        <v>106.163935093948</v>
+        <v>2579.04221494014</v>
       </c>
       <c r="S12">
-        <v>0.01109277714303495</v>
+        <v>0.01699456695247502</v>
       </c>
       <c r="T12">
-        <v>0.01109277714303495</v>
+        <v>0.01754150805098085</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>161.3343509246791</v>
+        <v>185.27875780108</v>
       </c>
       <c r="R13">
-        <v>161.3343509246791</v>
+        <v>1667.50882020972</v>
       </c>
       <c r="S13">
-        <v>0.01685738192296606</v>
+        <v>0.01098802885999075</v>
       </c>
       <c r="T13">
-        <v>0.01685738192296606</v>
+        <v>0.0113416597934475</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>9.201999531117902</v>
+        <v>10.89919708281667</v>
       </c>
       <c r="R14">
-        <v>9.201999531117902</v>
+        <v>98.09277374535</v>
       </c>
       <c r="S14">
-        <v>0.000961491583546454</v>
+        <v>0.0006463811260290002</v>
       </c>
       <c r="T14">
-        <v>0.000961491583546454</v>
+        <v>0.00066718379808957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>16.85686032570624</v>
+        <v>21.42333140950667</v>
       </c>
       <c r="R15">
-        <v>16.85686032570624</v>
+        <v>192.80998268556</v>
       </c>
       <c r="S15">
-        <v>0.00176132690219945</v>
+        <v>0.001270519009294833</v>
       </c>
       <c r="T15">
-        <v>0.00176132690219945</v>
+        <v>0.001311408492654988</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>40.50923953405638</v>
+        <v>45.47841258985001</v>
       </c>
       <c r="R16">
-        <v>40.50923953405638</v>
+        <v>272.8704755391</v>
       </c>
       <c r="S16">
-        <v>0.004232698853781701</v>
+        <v>0.002697114963283316</v>
       </c>
       <c r="T16">
-        <v>0.004232698853781701</v>
+        <v>0.001855944666518455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>269.8563521044862</v>
+        <v>1335.866100147414</v>
       </c>
       <c r="R17">
-        <v>269.8563521044862</v>
+        <v>12022.79490132673</v>
       </c>
       <c r="S17">
-        <v>0.02819654689587785</v>
+        <v>0.0792240591188674</v>
       </c>
       <c r="T17">
-        <v>0.02819654689587785</v>
+        <v>0.08177375009032539</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>410.0931203346178</v>
+        <v>863.7192876141722</v>
       </c>
       <c r="R18">
-        <v>410.0931203346178</v>
+        <v>7773.47358852755</v>
       </c>
       <c r="S18">
-        <v>0.04284950051764854</v>
+        <v>0.05122320859590658</v>
       </c>
       <c r="T18">
-        <v>0.04284950051764854</v>
+        <v>0.05287174003873677</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>23.39041053194937</v>
+        <v>50.80909895803501</v>
       </c>
       <c r="R19">
-        <v>23.39041053194937</v>
+        <v>457.281890622315</v>
       </c>
       <c r="S19">
-        <v>0.002443999566193577</v>
+        <v>0.003013253393572569</v>
       </c>
       <c r="T19">
-        <v>0.002443999566193577</v>
+        <v>0.003110229805255538</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>42.84817467819394</v>
+        <v>99.86975713215601</v>
       </c>
       <c r="R20">
-        <v>42.84817467819394</v>
+        <v>898.8278141894041</v>
       </c>
       <c r="S20">
-        <v>0.004477087744255385</v>
+        <v>0.005922814825791111</v>
       </c>
       <c r="T20">
-        <v>0.004477087744255385</v>
+        <v>0.006113430500560806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N21">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O21">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P21">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q21">
-        <v>102.9697664985147</v>
+        <v>212.008017487365</v>
       </c>
       <c r="R21">
-        <v>102.9697664985147</v>
+        <v>1272.04810492419</v>
       </c>
       <c r="S21">
-        <v>0.01075902726502725</v>
+        <v>0.01257321801132569</v>
       </c>
       <c r="T21">
-        <v>0.01075902726502725</v>
+        <v>0.008651910365988528</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N22">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O22">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P22">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q22">
-        <v>39.62121837574287</v>
+        <v>97.612211187108</v>
       </c>
       <c r="R22">
-        <v>39.62121837574287</v>
+        <v>585.673267122648</v>
       </c>
       <c r="S22">
-        <v>0.004139911969057105</v>
+        <v>0.005788930184662553</v>
       </c>
       <c r="T22">
-        <v>0.004139911969057105</v>
+        <v>0.003983491340685418</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N23">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P23">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q23">
-        <v>60.21125294421991</v>
+        <v>63.11227562378402</v>
       </c>
       <c r="R23">
-        <v>60.21125294421991</v>
+        <v>378.6736537427041</v>
       </c>
       <c r="S23">
-        <v>0.006291307964631142</v>
+        <v>0.003742898075333421</v>
       </c>
       <c r="T23">
-        <v>0.006291307964631142</v>
+        <v>0.002575571236229706</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N24">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O24">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P24">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q24">
-        <v>3.434258843111498</v>
+        <v>3.71263893677</v>
       </c>
       <c r="R24">
-        <v>3.434258843111498</v>
+        <v>22.27583362062</v>
       </c>
       <c r="S24">
-        <v>0.0003588362466445968</v>
+        <v>0.0002201794974670125</v>
       </c>
       <c r="T24">
-        <v>0.0003588362466445968</v>
+        <v>0.0001515103989127549</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N25">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O25">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P25">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q25">
-        <v>6.291113300417563</v>
+        <v>7.297518683432</v>
       </c>
       <c r="R25">
-        <v>6.291113300417563</v>
+        <v>43.785112100592</v>
       </c>
       <c r="S25">
-        <v>0.000657341099511423</v>
+        <v>0.0004327821864283089</v>
       </c>
       <c r="T25">
-        <v>0.000657341099511423</v>
+        <v>0.0002978070277315955</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N26">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O26">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P26">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q26">
-        <v>15.11836787505837</v>
+        <v>15.49150126203</v>
       </c>
       <c r="R26">
-        <v>15.11836787505837</v>
+        <v>61.96600504812001</v>
       </c>
       <c r="S26">
-        <v>0.001579676614813061</v>
+        <v>0.0009187295131507866</v>
       </c>
       <c r="T26">
-        <v>0.001579676614813061</v>
+        <v>0.0004214654456379055</v>
       </c>
     </row>
   </sheetData>
